--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3867.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3867.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.741084093561981</v>
+        <v>4.441463470458984</v>
       </c>
       <c r="B1">
-        <v>3.108475561343832</v>
+        <v>4.375473976135254</v>
       </c>
       <c r="C1">
-        <v>3.413710107466397</v>
+        <v>3.746745347976685</v>
       </c>
       <c r="D1">
-        <v>3.593118238656947</v>
+        <v>4.546655178070068</v>
       </c>
       <c r="E1">
-        <v>0.8116937582989233</v>
+        <v>4.770989894866943</v>
       </c>
     </row>
   </sheetData>
